--- a/DMS/Templates/Kpi_General_Export.xlsx
+++ b/DMS/Templates/Kpi_General_Export.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF04712-2A86-4ECF-94FB-BAFA207B797B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D17F0DD-5A29-45E2-A614-62C2C7FE6548}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KPI nhân viên" sheetId="1" r:id="rId1"/>
@@ -574,9 +574,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -586,17 +598,11 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -884,7 +890,7 @@
   <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -896,16 +902,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="18" x14ac:dyDescent="0.35">
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="F2" s="1" t="s">
@@ -916,43 +922,43 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5" t="s">
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="6" t="s">
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
       <c r="D5" s="2" t="s">
         <v>0</v>
       </c>
@@ -1001,455 +1007,455 @@
       <c r="S5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="T5" s="6"/>
+      <c r="T5" s="5"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
     </row>
     <row r="7" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N7" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O7" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="P7" t="s">
+      <c r="P7" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="Q7" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="R7" t="s">
+      <c r="R7" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="S7" t="s">
+      <c r="S7" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="T7" t="s">
+      <c r="T7" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" t="s">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="N8" t="s">
+      <c r="N8" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="O8" t="s">
+      <c r="O8" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="P8" t="s">
+      <c r="P8" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="Q8" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="R8" t="s">
+      <c r="R8" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="S8" t="s">
+      <c r="S8" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="T8" t="s">
+      <c r="T8" s="9" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" t="s">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="N9" t="s">
+      <c r="N9" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="O9" t="s">
+      <c r="O9" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="P9" t="s">
+      <c r="P9" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="Q9" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="R9" t="s">
+      <c r="R9" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="S9" t="s">
+      <c r="S9" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="T9" t="s">
+      <c r="T9" s="9" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" t="s">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="N10" t="s">
+      <c r="N10" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="O10" t="s">
+      <c r="O10" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="P10" t="s">
+      <c r="P10" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="Q10" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="R10" t="s">
+      <c r="R10" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="S10" t="s">
+      <c r="S10" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="T10" t="s">
+      <c r="T10" s="9" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" t="s">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="N11" t="s">
+      <c r="N11" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="O11" t="s">
+      <c r="O11" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="P11" t="s">
+      <c r="P11" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="Q11" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="R11" t="s">
+      <c r="R11" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="S11" t="s">
+      <c r="S11" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="T11" t="s">
+      <c r="T11" s="10" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" t="s">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L12" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M12" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="N12" t="s">
+      <c r="N12" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="O12" t="s">
+      <c r="O12" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="P12" t="s">
+      <c r="P12" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="Q12" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="R12" t="s">
+      <c r="R12" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="S12" t="s">
+      <c r="S12" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="T12" t="s">
+      <c r="T12" s="9" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" t="s">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L13" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M13" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="N13" t="s">
+      <c r="N13" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="O13" t="s">
+      <c r="O13" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="P13" t="s">
+      <c r="P13" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="Q13" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="R13" t="s">
+      <c r="R13" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="S13" t="s">
+      <c r="S13" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="T13" t="s">
+      <c r="T13" s="9" t="s">
         <v>138</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A4:C5" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="10">
+    <mergeCell ref="A7:A13"/>
+    <mergeCell ref="B7:B13"/>
+    <mergeCell ref="A6:T6"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="T4:T5"/>
     <mergeCell ref="D1:K1"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:O4"/>
-    <mergeCell ref="A7:A13"/>
-    <mergeCell ref="B7:B13"/>
-    <mergeCell ref="A6:T6"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="T4:T5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DMS/Templates/Kpi_General_Export.xlsx
+++ b/DMS/Templates/Kpi_General_Export.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D17F0DD-5A29-45E2-A614-62C2C7FE6548}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1DFF519-60F7-4A4F-B7E0-4CABA8970D77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KPI nhân viên" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="225">
   <si>
     <t>Tháng 1</t>
   </si>
@@ -487,6 +487,222 @@
   </si>
   <si>
     <t>{{KpiGenerals.TotalIndirectOrders.M8}}</t>
+  </si>
+  <si>
+    <t>{{KpiGenerals.SKUDirectOrder.Name}}</t>
+  </si>
+  <si>
+    <t>{{KpiGenerals.SKUDirectOrder.M1}}</t>
+  </si>
+  <si>
+    <t>{{KpiGenerals.SKUDirectOrder.M2}}</t>
+  </si>
+  <si>
+    <t>{{KpiGenerals.SKUDirectOrder.M3}}</t>
+  </si>
+  <si>
+    <t>{{KpiGenerals.SKUDirectOrder.M4}}</t>
+  </si>
+  <si>
+    <t>{{KpiGenerals.SKUDirectOrder.M5}}</t>
+  </si>
+  <si>
+    <t>{{KpiGenerals.SKUDirectOrder.M6}}</t>
+  </si>
+  <si>
+    <t>{{KpiGenerals.SKUDirectOrder.M7}}</t>
+  </si>
+  <si>
+    <t>{{KpiGenerals.SKUDirectOrder.M8}}</t>
+  </si>
+  <si>
+    <t>{{KpiGenerals.SKUDirectOrder.M9}}</t>
+  </si>
+  <si>
+    <t>{{KpiGenerals.SKUDirectOrder.M10}}</t>
+  </si>
+  <si>
+    <t>{{KpiGenerals.SKUDirectOrder.M11}}</t>
+  </si>
+  <si>
+    <t>{{KpiGenerals.SKUDirectOrder.M12}}</t>
+  </si>
+  <si>
+    <t>{{KpiGenerals.SKUDirectOrder.Q1}}</t>
+  </si>
+  <si>
+    <t>{{KpiGenerals.SKUDirectOrder.Q2}}</t>
+  </si>
+  <si>
+    <t>{{KpiGenerals.SKUDirectOrder.Q3}}</t>
+  </si>
+  <si>
+    <t>{{KpiGenerals.SKUDirectOrder.Q4}}</t>
+  </si>
+  <si>
+    <t>{{KpiGenerals.SKUDirectOrder.Y}}</t>
+  </si>
+  <si>
+    <t>{{KpiGenerals.TotalDirectSalesAmount.Name}}</t>
+  </si>
+  <si>
+    <t>{{KpiGenerals.TotalDirectSalesAmount.M1}}</t>
+  </si>
+  <si>
+    <t>{{KpiGenerals.TotalDirectSalesAmount.M2}}</t>
+  </si>
+  <si>
+    <t>{{KpiGenerals.TotalDirectSalesAmount.M3}}</t>
+  </si>
+  <si>
+    <t>{{KpiGenerals.TotalDirectSalesAmount.M4}}</t>
+  </si>
+  <si>
+    <t>{{KpiGenerals.TotalDirectSalesAmount.M5}}</t>
+  </si>
+  <si>
+    <t>{{KpiGenerals.TotalDirectSalesAmount.M6}}</t>
+  </si>
+  <si>
+    <t>{{KpiGenerals.TotalDirectSalesAmount.M7}}</t>
+  </si>
+  <si>
+    <t>{{KpiGenerals.TotalDirectSalesAmount.M8}}</t>
+  </si>
+  <si>
+    <t>{{KpiGenerals.TotalDirectSalesAmount.M9}}</t>
+  </si>
+  <si>
+    <t>{{KpiGenerals.TotalDirectSalesAmount.M10}}</t>
+  </si>
+  <si>
+    <t>{{KpiGenerals.TotalDirectSalesAmount.M11}}</t>
+  </si>
+  <si>
+    <t>{{KpiGenerals.TotalDirectSalesAmount.M12}}</t>
+  </si>
+  <si>
+    <t>{{KpiGenerals.TotalDirectSalesAmount.Q1}}</t>
+  </si>
+  <si>
+    <t>{{KpiGenerals.TotalDirectSalesAmount.Q2}}</t>
+  </si>
+  <si>
+    <t>{{KpiGenerals.TotalDirectSalesAmount.Q3}}</t>
+  </si>
+  <si>
+    <t>{{KpiGenerals.TotalDirectSalesAmount.Q4}}</t>
+  </si>
+  <si>
+    <t>{{KpiGenerals.TotalDirectSalesAmount.Y}}</t>
+  </si>
+  <si>
+    <t>{{KpiGenerals.TotalDirectQuantity.Name}}</t>
+  </si>
+  <si>
+    <t>{{KpiGenerals.TotalDirectQuantity.M1}}</t>
+  </si>
+  <si>
+    <t>{{KpiGenerals.TotalDirectQuantity.M2}}</t>
+  </si>
+  <si>
+    <t>{{KpiGenerals.TotalDirectQuantity.M3}}</t>
+  </si>
+  <si>
+    <t>{{KpiGenerals.TotalDirectQuantity.M4}}</t>
+  </si>
+  <si>
+    <t>{{KpiGenerals.TotalDirectQuantity.M5}}</t>
+  </si>
+  <si>
+    <t>{{KpiGenerals.TotalDirectQuantity.M6}}</t>
+  </si>
+  <si>
+    <t>{{KpiGenerals.TotalDirectQuantity.M7}}</t>
+  </si>
+  <si>
+    <t>{{KpiGenerals.TotalDirectQuantity.M8}}</t>
+  </si>
+  <si>
+    <t>{{KpiGenerals.TotalDirectQuantity.M9}}</t>
+  </si>
+  <si>
+    <t>{{KpiGenerals.TotalDirectQuantity.M10}}</t>
+  </si>
+  <si>
+    <t>{{KpiGenerals.TotalDirectQuantity.M11}}</t>
+  </si>
+  <si>
+    <t>{{KpiGenerals.TotalDirectQuantity.M12}}</t>
+  </si>
+  <si>
+    <t>{{KpiGenerals.TotalDirectQuantity.Q1}}</t>
+  </si>
+  <si>
+    <t>{{KpiGenerals.TotalDirectQuantity.Q2}}</t>
+  </si>
+  <si>
+    <t>{{KpiGenerals.TotalDirectQuantity.Q3}}</t>
+  </si>
+  <si>
+    <t>{{KpiGenerals.TotalDirectQuantity.Q4}}</t>
+  </si>
+  <si>
+    <t>{{KpiGenerals.TotalDirectQuantity.Y}}</t>
+  </si>
+  <si>
+    <t>{{KpiGenerals.TotalDirectOrders.Name}}</t>
+  </si>
+  <si>
+    <t>{{KpiGenerals.TotalDirectOrders.M1}}</t>
+  </si>
+  <si>
+    <t>{{KpiGenerals.TotalDirectOrders.M2}}</t>
+  </si>
+  <si>
+    <t>{{KpiGenerals.TotalDirectOrders.M3}}</t>
+  </si>
+  <si>
+    <t>{{KpiGenerals.TotalDirectOrders.M4}}</t>
+  </si>
+  <si>
+    <t>{{KpiGenerals.TotalDirectOrders.M5}}</t>
+  </si>
+  <si>
+    <t>{{KpiGenerals.TotalDirectOrders.M6}}</t>
+  </si>
+  <si>
+    <t>{{KpiGenerals.TotalDirectOrders.M7}}</t>
+  </si>
+  <si>
+    <t>{{KpiGenerals.TotalDirectOrders.M8}}</t>
+  </si>
+  <si>
+    <t>{{KpiGenerals.TotalDirectOrders.M9}}</t>
+  </si>
+  <si>
+    <t>{{KpiGenerals.TotalDirectOrders.M10}}</t>
+  </si>
+  <si>
+    <t>{{KpiGenerals.TotalDirectOrders.M11}}</t>
+  </si>
+  <si>
+    <t>{{KpiGenerals.TotalDirectOrders.M12}}</t>
+  </si>
+  <si>
+    <t>{{KpiGenerals.TotalDirectOrders.Q1}}</t>
+  </si>
+  <si>
+    <t>{{KpiGenerals.TotalDirectOrders.Q2}}</t>
+  </si>
+  <si>
+    <t>{{KpiGenerals.TotalDirectOrders.Q3}}</t>
+  </si>
+  <si>
+    <t>{{KpiGenerals.TotalDirectOrders.Q4}}</t>
+  </si>
+  <si>
+    <t>{{KpiGenerals.TotalDirectOrders.Y}}</t>
   </si>
 </sst>
 </file>
@@ -580,17 +796,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -598,11 +808,17 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -887,33 +1103,33 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="AB5" sqref="AB5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" customWidth="1"/>
-    <col min="3" max="3" width="31.44140625" customWidth="1"/>
-    <col min="4" max="20" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" customWidth="1"/>
+    <col min="4" max="20" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="18" x14ac:dyDescent="0.35">
-      <c r="D1" s="3" t="s">
+    <row r="1" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
@@ -921,44 +1137,44 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6" t="s">
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="5" t="s">
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
       <c r="D5" s="2" t="s">
         <v>0</v>
       </c>
@@ -1007,455 +1223,679 @@
       <c r="S5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="T5" s="5"/>
+      <c r="T5" s="8"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
     </row>
-    <row r="7" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="L7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="M7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N7" s="9" t="s">
+      <c r="N7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="O7" s="9" t="s">
+      <c r="O7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="P7" s="9" t="s">
+      <c r="P7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="Q7" s="9" t="s">
+      <c r="Q7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="R7" s="9" t="s">
+      <c r="R7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="S7" s="9" t="s">
+      <c r="S7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="T7" s="9" t="s">
+      <c r="T7" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="9" t="s">
+    <row r="8" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="J8" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="K8" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="L8" s="9" t="s">
+      <c r="L8" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="M8" s="9" t="s">
+      <c r="M8" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="N8" s="9" t="s">
+      <c r="N8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="O8" s="9" t="s">
+      <c r="O8" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="P8" s="9" t="s">
+      <c r="P8" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="Q8" s="9" t="s">
+      <c r="Q8" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="R8" s="9" t="s">
+      <c r="R8" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="S8" s="9" t="s">
+      <c r="S8" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="T8" s="9" t="s">
+      <c r="T8" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="9" t="s">
+    <row r="9" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K9" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="L9" s="9" t="s">
+      <c r="L9" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="M9" s="9" t="s">
+      <c r="M9" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="N9" s="9" t="s">
+      <c r="N9" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="O9" s="9" t="s">
+      <c r="O9" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="P9" s="9" t="s">
+      <c r="P9" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="Q9" s="9" t="s">
+      <c r="Q9" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="R9" s="9" t="s">
+      <c r="R9" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="S9" s="9" t="s">
+      <c r="S9" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="T9" s="9" t="s">
+      <c r="T9" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="9" t="s">
+    <row r="10" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J10" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="K10" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="L10" s="9" t="s">
+      <c r="L10" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="M10" s="9" t="s">
+      <c r="M10" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="N10" s="9" t="s">
+      <c r="N10" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="O10" s="9" t="s">
+      <c r="O10" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="P10" s="9" t="s">
+      <c r="P10" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="Q10" s="9" t="s">
+      <c r="Q10" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="R10" s="9" t="s">
+      <c r="R10" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="S10" s="9" t="s">
+      <c r="S10" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="T10" s="9" t="s">
+      <c r="T10" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="9" t="s">
+    <row r="11" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="K11" s="10" t="s">
+      <c r="K11" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="L11" s="10" t="s">
+      <c r="L11" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="M11" s="10" t="s">
+      <c r="M11" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="N11" s="10" t="s">
+      <c r="N11" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="O11" s="10" t="s">
+      <c r="O11" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="P11" s="10" t="s">
+      <c r="P11" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="Q11" s="10" t="s">
+      <c r="Q11" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="R11" s="10" t="s">
+      <c r="R11" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="S11" s="10" t="s">
+      <c r="S11" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="T11" s="10" t="s">
+      <c r="T11" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="9" t="s">
+    <row r="12" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="I12" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="J12" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="K12" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="L12" s="9" t="s">
+      <c r="L12" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="M12" s="9" t="s">
+      <c r="M12" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="N12" s="9" t="s">
+      <c r="N12" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="O12" s="9" t="s">
+      <c r="O12" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="P12" s="9" t="s">
+      <c r="P12" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="Q12" s="9" t="s">
+      <c r="Q12" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="R12" s="9" t="s">
+      <c r="R12" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="S12" s="9" t="s">
+      <c r="S12" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="T12" s="9" t="s">
+      <c r="T12" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="9" t="s">
+    <row r="13" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="I13" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="J13" s="9" t="s">
+      <c r="J13" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="K13" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="L13" s="9" t="s">
+      <c r="L13" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="M13" s="9" t="s">
+      <c r="M13" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="N13" s="9" t="s">
+      <c r="N13" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="O13" s="9" t="s">
+      <c r="O13" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="P13" s="9" t="s">
+      <c r="P13" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="Q13" s="9" t="s">
+      <c r="Q13" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="R13" s="9" t="s">
+      <c r="R13" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="S13" s="9" t="s">
+      <c r="S13" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="T13" s="9" t="s">
+      <c r="T13" s="3" t="s">
         <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C14" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C15" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="T15" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C16" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C17" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A4:C5" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="10">
+    <mergeCell ref="D1:K1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:O4"/>
     <mergeCell ref="A7:A13"/>
     <mergeCell ref="B7:B13"/>
     <mergeCell ref="A6:T6"/>
     <mergeCell ref="P4:S4"/>
     <mergeCell ref="T4:T5"/>
-    <mergeCell ref="D1:K1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:O4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DMS/Templates/Kpi_General_Export.xlsx
+++ b/DMS/Templates/Kpi_General_Export.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1DFF519-60F7-4A4F-B7E0-4CABA8970D77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D9005A4-1469-4B2D-8743-C8B5B4B9778C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KPI nhân viên" sheetId="1" r:id="rId1"/>
@@ -802,9 +802,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -813,6 +810,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1105,8 +1105,8 @@
   </sheetPr>
   <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB5" sqref="AB5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1141,40 +1141,40 @@
       <c r="A4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7" t="s">
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="8" t="s">
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
       <c r="D5" s="2" t="s">
         <v>0</v>
       </c>
@@ -1223,271 +1223,271 @@
       <c r="S5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="T5" s="8"/>
+      <c r="T5" s="7"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
     </row>
-    <row r="7" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:20" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="M7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="N7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="O7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="P7" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="Q7" s="3" t="s">
+      <c r="Q7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="R7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="S7" s="3" t="s">
+      <c r="S7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="T7" s="3" t="s">
+      <c r="T7" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
       <c r="C8" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="L8" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="M8" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="N8" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="O8" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="P8" s="3" t="s">
+      <c r="P8" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="Q8" s="3" t="s">
+      <c r="Q8" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="R8" s="3" t="s">
+      <c r="R8" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="S8" s="3" t="s">
+      <c r="S8" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="T8" s="3" t="s">
+      <c r="T8" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
       <c r="C9" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="L9" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="M9" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="N9" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="O9" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="P9" s="3" t="s">
+      <c r="P9" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="Q9" s="3" t="s">
+      <c r="Q9" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="R9" s="3" t="s">
+      <c r="R9" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="S9" s="3" t="s">
+      <c r="S9" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="T9" s="3" t="s">
+      <c r="T9" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
       <c r="C10" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="L10" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="M10" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="N10" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="O10" s="3" t="s">
+      <c r="O10" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="P10" s="3" t="s">
+      <c r="P10" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="Q10" s="3" t="s">
+      <c r="Q10" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="R10" s="3" t="s">
+      <c r="R10" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="S10" s="3" t="s">
+      <c r="S10" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="T10" s="3" t="s">
+      <c r="T10" s="4" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
       <c r="C11" s="3" t="s">
         <v>143</v>
       </c>
@@ -1544,178 +1544,182 @@
       </c>
     </row>
     <row r="12" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
       <c r="C12" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="L12" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="M12" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="N12" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="O12" s="3" t="s">
+      <c r="O12" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="P12" s="3" t="s">
+      <c r="P12" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="Q12" s="3" t="s">
+      <c r="Q12" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="R12" s="3" t="s">
+      <c r="R12" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="S12" s="3" t="s">
+      <c r="S12" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="T12" s="3" t="s">
+      <c r="T12" s="4" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
       <c r="C13" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="J13" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="L13" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="M13" s="3" t="s">
+      <c r="M13" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="N13" s="3" t="s">
+      <c r="N13" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="O13" s="3" t="s">
+      <c r="O13" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="P13" s="3" t="s">
+      <c r="P13" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="Q13" s="3" t="s">
+      <c r="Q13" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="R13" s="3" t="s">
+      <c r="R13" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="S13" s="3" t="s">
+      <c r="S13" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="T13" s="3" t="s">
+      <c r="T13" s="4" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
       <c r="C14" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="L14" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="M14" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="N14" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="O14" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="P14" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="Q14" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="R14" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="S14" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="T14" s="3" t="s">
+      <c r="T14" s="4" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
       <c r="C15" s="3" t="s">
         <v>171</v>
       </c>
@@ -1772,114 +1776,118 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
       <c r="C16" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="J16" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="L16" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="M16" s="3" t="s">
+      <c r="M16" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="N16" s="3" t="s">
+      <c r="N16" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="O16" s="3" t="s">
+      <c r="O16" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="P16" s="3" t="s">
+      <c r="P16" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="Q16" s="3" t="s">
+      <c r="Q16" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="R16" s="3" t="s">
+      <c r="R16" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="S16" s="3" t="s">
+      <c r="S16" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="T16" s="3" t="s">
+      <c r="T16" s="4" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
       <c r="C17" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I17" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="J17" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="L17" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="M17" s="3" t="s">
+      <c r="M17" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="N17" s="3" t="s">
+      <c r="N17" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="O17" s="3" t="s">
+      <c r="O17" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="P17" s="3" t="s">
+      <c r="P17" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="Q17" s="3" t="s">
+      <c r="Q17" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="R17" s="3" t="s">
+      <c r="R17" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="S17" s="3" t="s">
+      <c r="S17" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="T17" s="3" t="s">
+      <c r="T17" s="4" t="s">
         <v>224</v>
       </c>
     </row>
@@ -1891,11 +1899,11 @@
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:O4"/>
-    <mergeCell ref="A7:A13"/>
-    <mergeCell ref="B7:B13"/>
     <mergeCell ref="A6:T6"/>
     <mergeCell ref="P4:S4"/>
     <mergeCell ref="T4:T5"/>
+    <mergeCell ref="B7:B17"/>
+    <mergeCell ref="A7:A17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DMS/Templates/Kpi_General_Export.xlsx
+++ b/DMS/Templates/Kpi_General_Export.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D9005A4-1469-4B2D-8743-C8B5B4B9778C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2CAFB21-05B0-4886-8643-EA9626E606CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KPI nhân viên" sheetId="1" r:id="rId1"/>
@@ -802,23 +802,23 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1106,7 +1106,7 @@
   <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1118,16 +1118,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F2" s="1" t="s">
@@ -1138,7 +1138,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -1147,32 +1147,32 @@
       <c r="C4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6" t="s">
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
       <c r="T4" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
+      <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="2" t="s">
@@ -1226,34 +1226,34 @@
       <c r="T5" s="7"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
     </row>
     <row r="7" spans="1:20" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -1312,8 +1312,8 @@
       </c>
     </row>
     <row r="8" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
       <c r="C8" s="3" t="s">
         <v>140</v>
       </c>
@@ -1370,8 +1370,8 @@
       </c>
     </row>
     <row r="9" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
       <c r="C9" s="3" t="s">
         <v>141</v>
       </c>
@@ -1428,8 +1428,8 @@
       </c>
     </row>
     <row r="10" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
       <c r="C10" s="3" t="s">
         <v>142</v>
       </c>
@@ -1486,8 +1486,8 @@
       </c>
     </row>
     <row r="11" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
       <c r="C11" s="3" t="s">
         <v>143</v>
       </c>
@@ -1544,8 +1544,8 @@
       </c>
     </row>
     <row r="12" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
       <c r="C12" s="3" t="s">
         <v>144</v>
       </c>
@@ -1602,8 +1602,8 @@
       </c>
     </row>
     <row r="13" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
       <c r="C13" s="3" t="s">
         <v>145</v>
       </c>
@@ -1660,8 +1660,8 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
       <c r="C14" s="3" t="s">
         <v>153</v>
       </c>
@@ -1718,8 +1718,8 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
       <c r="C15" s="3" t="s">
         <v>171</v>
       </c>
@@ -1776,8 +1776,8 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
       <c r="C16" s="3" t="s">
         <v>189</v>
       </c>
@@ -1834,8 +1834,8 @@
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
       <c r="C17" s="3" t="s">
         <v>207</v>
       </c>
@@ -1894,16 +1894,16 @@
   </sheetData>
   <autoFilter ref="A4:C5" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="10">
+    <mergeCell ref="A6:T6"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="B7:B17"/>
+    <mergeCell ref="A7:A17"/>
     <mergeCell ref="D1:K1"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:O4"/>
-    <mergeCell ref="A6:T6"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="B7:B17"/>
-    <mergeCell ref="A7:A17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DMS/Templates/Kpi_General_Export.xlsx
+++ b/DMS/Templates/Kpi_General_Export.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2CAFB21-05B0-4886-8643-EA9626E606CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD09D9DA-C16F-42F0-A80E-3476A8FD4C0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -799,8 +799,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -808,17 +817,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1106,7 +1106,7 @@
   <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="D7" sqref="D7:T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1118,16 +1118,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F2" s="1" t="s">
@@ -1138,43 +1138,43 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8" t="s">
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="7" t="s">
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>0</v>
       </c>
@@ -1223,687 +1223,687 @@
       <c r="S5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="T5" s="7"/>
+      <c r="T5" s="6"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
     </row>
     <row r="7" spans="1:20" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="7" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="L7" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="M7" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="N7" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O7" s="4" t="s">
+      <c r="O7" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="P7" s="4" t="s">
+      <c r="P7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="Q7" s="4" t="s">
+      <c r="Q7" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="R7" s="4" t="s">
+      <c r="R7" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="S7" s="4" t="s">
+      <c r="S7" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="T7" s="4" t="s">
+      <c r="T7" s="10" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
       <c r="C8" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="L8" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="M8" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="N8" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="O8" s="4" t="s">
+      <c r="O8" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="P8" s="4" t="s">
+      <c r="P8" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="Q8" s="4" t="s">
+      <c r="Q8" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="R8" s="4" t="s">
+      <c r="R8" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="S8" s="4" t="s">
+      <c r="S8" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="T8" s="4" t="s">
+      <c r="T8" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
       <c r="C9" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="L9" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="M9" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="N9" s="4" t="s">
+      <c r="N9" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="O9" s="4" t="s">
+      <c r="O9" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="P9" s="4" t="s">
+      <c r="P9" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="Q9" s="4" t="s">
+      <c r="Q9" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="R9" s="4" t="s">
+      <c r="R9" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="S9" s="4" t="s">
+      <c r="S9" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="T9" s="4" t="s">
+      <c r="T9" s="10" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
       <c r="C10" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="L10" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="M10" s="4" t="s">
+      <c r="M10" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="N10" s="4" t="s">
+      <c r="N10" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="O10" s="4" t="s">
+      <c r="O10" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="P10" s="4" t="s">
+      <c r="P10" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="Q10" s="4" t="s">
+      <c r="Q10" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="R10" s="4" t="s">
+      <c r="R10" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="S10" s="4" t="s">
+      <c r="S10" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="T10" s="4" t="s">
+      <c r="T10" s="10" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
       <c r="C11" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="L11" s="4" t="s">
+      <c r="L11" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="M11" s="4" t="s">
+      <c r="M11" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="N11" s="4" t="s">
+      <c r="N11" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="O11" s="4" t="s">
+      <c r="O11" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="P11" s="4" t="s">
+      <c r="P11" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="Q11" s="4" t="s">
+      <c r="Q11" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="R11" s="4" t="s">
+      <c r="R11" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="S11" s="4" t="s">
+      <c r="S11" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="T11" s="4" t="s">
+      <c r="T11" s="10" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
       <c r="C12" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J12" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="L12" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="M12" s="4" t="s">
+      <c r="M12" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="N12" s="4" t="s">
+      <c r="N12" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="O12" s="4" t="s">
+      <c r="O12" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="P12" s="4" t="s">
+      <c r="P12" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="Q12" s="4" t="s">
+      <c r="Q12" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="R12" s="4" t="s">
+      <c r="R12" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="S12" s="4" t="s">
+      <c r="S12" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="T12" s="4" t="s">
+      <c r="T12" s="10" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
       <c r="C13" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J13" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="L13" s="4" t="s">
+      <c r="L13" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="M13" s="4" t="s">
+      <c r="M13" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="N13" s="4" t="s">
+      <c r="N13" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="O13" s="4" t="s">
+      <c r="O13" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="P13" s="4" t="s">
+      <c r="P13" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="Q13" s="4" t="s">
+      <c r="Q13" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="R13" s="4" t="s">
+      <c r="R13" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="S13" s="4" t="s">
+      <c r="S13" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="T13" s="4" t="s">
+      <c r="T13" s="10" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
       <c r="C14" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J14" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="L14" s="4" t="s">
+      <c r="L14" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="M14" s="4" t="s">
+      <c r="M14" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="N14" s="4" t="s">
+      <c r="N14" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="O14" s="4" t="s">
+      <c r="O14" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="P14" s="4" t="s">
+      <c r="P14" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="Q14" s="4" t="s">
+      <c r="Q14" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="R14" s="4" t="s">
+      <c r="R14" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="S14" s="4" t="s">
+      <c r="S14" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="T14" s="4" t="s">
+      <c r="T14" s="10" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
       <c r="C15" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="J15" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="L15" s="4" t="s">
+      <c r="L15" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="M15" s="4" t="s">
+      <c r="M15" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="N15" s="4" t="s">
+      <c r="N15" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="O15" s="4" t="s">
+      <c r="O15" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="P15" s="4" t="s">
+      <c r="P15" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="Q15" s="4" t="s">
+      <c r="Q15" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="R15" s="4" t="s">
+      <c r="R15" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="S15" s="4" t="s">
+      <c r="S15" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="T15" s="4" t="s">
+      <c r="T15" s="10" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
       <c r="C16" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="J16" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="L16" s="4" t="s">
+      <c r="L16" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="M16" s="4" t="s">
+      <c r="M16" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="N16" s="4" t="s">
+      <c r="N16" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="O16" s="4" t="s">
+      <c r="O16" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="P16" s="4" t="s">
+      <c r="P16" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="Q16" s="4" t="s">
+      <c r="Q16" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="R16" s="4" t="s">
+      <c r="R16" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="S16" s="4" t="s">
+      <c r="S16" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="T16" s="4" t="s">
+      <c r="T16" s="10" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
       <c r="C17" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H17" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="I17" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="J17" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="L17" s="4" t="s">
+      <c r="L17" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="M17" s="4" t="s">
+      <c r="M17" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="N17" s="4" t="s">
+      <c r="N17" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="O17" s="4" t="s">
+      <c r="O17" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="P17" s="4" t="s">
+      <c r="P17" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="Q17" s="4" t="s">
+      <c r="Q17" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="R17" s="4" t="s">
+      <c r="R17" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="S17" s="4" t="s">
+      <c r="S17" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="T17" s="4" t="s">
+      <c r="T17" s="10" t="s">
         <v>224</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A4:C5" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="10">
+    <mergeCell ref="D1:K1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:O4"/>
     <mergeCell ref="A6:T6"/>
     <mergeCell ref="P4:S4"/>
     <mergeCell ref="T4:T5"/>
     <mergeCell ref="B7:B17"/>
     <mergeCell ref="A7:A17"/>
-    <mergeCell ref="D1:K1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:O4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
